--- a/model results.xlsx
+++ b/model results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\My Drive\Grad School\Research\Papers\Diffusion_post_PVSC_2024\revisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21EC67-EAC1-444A-88F2-3DBC6D065DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A21FE48-B04A-41C9-839E-AA031DDBA3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19575" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{3451E107-E0C9-46E8-A3BA-1940F66C49FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3451E107-E0C9-46E8-A3BA-1940F66C49FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,633 +432,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5B5747-4523-4F91-989E-545C5DA7111B}">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>30.1</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>1.127</v>
+      </c>
+      <c r="F2">
+        <v>89.1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>12+B2*6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>30.1</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3">
-        <v>1.127</v>
+        <v>1.087</v>
       </c>
       <c r="F3">
-        <v>89.1</v>
+        <v>88.9</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <f>12+B3*6</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H12" si="0">12+B3*6</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>1.087</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="F4">
-        <v>88.9</v>
+        <v>88.5</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H13" si="0">12+B4*6</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>28.2</v>
+        <v>26.7</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>1.0609999999999999</v>
+        <v>1.022</v>
       </c>
       <c r="F5">
-        <v>88.5</v>
+        <v>87.2</v>
       </c>
       <c r="G5">
-        <v>1.02</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>26.7</v>
+        <v>24.9</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>1.022</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="F6">
-        <v>87.2</v>
+        <v>85.3</v>
       </c>
       <c r="G6">
-        <v>1.1299999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>24.9</v>
+        <v>22.9</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7">
-        <v>0.97099999999999997</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="F7">
-        <v>85.3</v>
+        <v>83.1</v>
       </c>
       <c r="G7">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>22.9</v>
+        <v>20.9</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8">
-        <v>0.91700000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="F8">
-        <v>83.1</v>
+        <v>80.8</v>
       </c>
       <c r="G8">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>20.9</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9">
-        <v>0.86</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="F9">
-        <v>80.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="G9">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>17.2</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10">
-        <v>0.80500000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
-        <v>78.599999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="G10">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11">
-        <v>0.75</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="F11">
-        <v>76.3</v>
+        <v>74.2</v>
       </c>
       <c r="G11">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>0.69799999999999995</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F12">
-        <v>74.2</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>50000000</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>26.6</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13">
-        <v>0.64900000000000002</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="F13">
-        <v>72</v>
+        <v>88.2</v>
       </c>
       <c r="G13">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H13:H22" si="1">12+B13*6</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>50000000</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>30.1</v>
+        <v>26.7</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14">
-        <v>1.127</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="F14">
-        <v>89.1</v>
+        <v>88.3</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <f>12+B14*6</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>50000000</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15">
-        <v>0.99399999999999999</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="F15">
-        <v>88.2</v>
+        <v>87.9</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H24" si="1">12+B15*6</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>50000000</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>26.8</v>
+        <v>25.3</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16">
-        <v>1.0109999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F16">
-        <v>88.3</v>
+        <v>85.8</v>
       </c>
       <c r="G16">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>50000000</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>26.7</v>
+        <v>23.3</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17">
-        <v>1.01</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F17">
-        <v>87.8</v>
+        <v>83.4</v>
       </c>
       <c r="G17">
-        <v>1.05</v>
+        <v>1.46</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>50000000</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>25.3</v>
+        <v>21.4</v>
       </c>
       <c r="D18">
         <v>30</v>
       </c>
       <c r="E18">
-        <v>0.98499999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="F18">
-        <v>85.7</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G18">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>50000000</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>23.4</v>
+        <v>19.5</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
       <c r="E19">
-        <v>0.93400000000000005</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="F19">
-        <v>83.3</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="G19">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>50000000</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>21.4</v>
+        <v>17.7</v>
       </c>
       <c r="D20">
         <v>30</v>
       </c>
       <c r="E20">
-        <v>0.878</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="F20">
-        <v>81.099999999999994</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G20">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>50000000</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21">
-        <v>0.82299999999999995</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F21">
-        <v>78</v>
+        <v>76.7</v>
       </c>
       <c r="G21">
-        <v>1.79</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>50000000</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>17.7</v>
+        <v>14.5</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22">
-        <v>0.76800000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F22">
-        <v>0.76700000000000002</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="G22">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="F23">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G23">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>14.5</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="F24">
-        <v>72.5</v>
-      </c>
-      <c r="G24">
-        <v>2.11</v>
-      </c>
-      <c r="H24">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
